--- a/electricity-cons-forecast/Results/Teste 3/Teste_03.xlsx
+++ b/electricity-cons-forecast/Results/Teste 3/Teste_03.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23029"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\jairp\Documents\GitHub\ann-ts-opt\electricity-cons-forecast\Results\Teste 3\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0B405372-CDED-4483-B247-C832681582A3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C8C6487-51E7-4FE9-9C46-903AC838474D}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="810" yWindow="-120" windowWidth="18510" windowHeight="11040" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-19680" yWindow="-120" windowWidth="19800" windowHeight="11760" firstSheet="1" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Geral" sheetId="1" state="hidden" r:id="rId1"/>
@@ -184,7 +184,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -200,6 +200,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor rgb="FFFF0000"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -245,7 +251,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="57">
+  <cellXfs count="52">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
@@ -257,19 +263,10 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -286,17 +283,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="164" fontId="1" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -343,14 +329,6 @@
     <xf numFmtId="164" fontId="0" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -366,17 +344,6 @@
     <xf numFmtId="2" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -399,6 +366,42 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="164" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="3" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="4" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
@@ -1780,17 +1783,20 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{362036B5-03E5-48F2-B574-6467EBC716F6}">
   <dimension ref="A1:AA51"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A25" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E33" sqref="E33"/>
+    <sheetView tabSelected="1" topLeftCell="E4" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="P26" sqref="P26"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="11.140625" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="12" bestFit="1" customWidth="1"/>
-    <col min="3" max="9" width="12.5703125" bestFit="1" customWidth="1"/>
-    <col min="11" max="16" width="11.5703125" bestFit="1" customWidth="1"/>
-    <col min="21" max="21" width="11.140625" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="12" style="43" bestFit="1" customWidth="1"/>
+    <col min="3" max="9" width="12.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="11" max="16" width="11.5703125" style="43" bestFit="1" customWidth="1"/>
+    <col min="17" max="20" width="9.140625" style="43"/>
+    <col min="21" max="21" width="11.140625" style="43" bestFit="1" customWidth="1"/>
+    <col min="22" max="16384" width="9.140625" style="43"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:27" x14ac:dyDescent="0.25">
@@ -1868,1689 +1874,1689 @@
       </c>
     </row>
     <row r="2" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A2" s="45" t="s">
+      <c r="A2" s="32" t="s">
         <v>14</v>
       </c>
-      <c r="B2" s="9" t="s">
+      <c r="B2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C2" s="39">
+      <c r="C2" s="27">
         <v>1.51965411701795E-2</v>
       </c>
-      <c r="D2" s="39">
+      <c r="D2" s="27">
         <v>1.57607323165249E-2</v>
       </c>
-      <c r="E2" s="39">
+      <c r="E2" s="27">
         <v>1.40244774949834E-2</v>
       </c>
-      <c r="F2" s="39">
+      <c r="F2" s="27">
         <v>1.3933960432291901E-2</v>
       </c>
-      <c r="G2" s="39">
+      <c r="G2" s="27">
         <v>1.5267838797225101E-2</v>
       </c>
-      <c r="H2" s="17">
+      <c r="H2" s="49">
         <v>1.3852984781933E-2</v>
       </c>
-      <c r="J2" s="49" t="s">
+      <c r="J2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="K2" s="9" t="s">
+      <c r="K2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L2" s="10">
+      <c r="L2" s="7">
         <f t="shared" ref="L2:L21" si="0">(C2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>0.70426320248601981</v>
       </c>
-      <c r="M2" s="10">
+      <c r="M2" s="7">
         <f t="shared" ref="M2:M21" si="1">(D2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>1</v>
       </c>
-      <c r="N2" s="10">
+      <c r="N2" s="7">
         <f t="shared" ref="N2:N21" si="2">(E2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>8.9892771418040779E-2</v>
       </c>
-      <c r="O2" s="10">
+      <c r="O2" s="7">
         <f t="shared" ref="O2:O21" si="3">(F2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>4.2445684709650537E-2</v>
       </c>
-      <c r="P2" s="10">
+      <c r="P2" s="7">
         <f t="shared" ref="P2:P21" si="4">(G2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>0.74163587667524511</v>
       </c>
-      <c r="Q2" s="10">
+      <c r="Q2" s="7">
         <f t="shared" ref="Q2:Q21" si="5">(H2-MIN($C2:$H2))/(MAX($C2:$H2)-MIN($C2:$H2))</f>
         <v>0</v>
       </c>
-      <c r="T2" s="49" t="s">
+      <c r="T2" s="40" t="s">
         <v>14</v>
       </c>
-      <c r="U2" s="9" t="s">
+      <c r="U2" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V2" s="28">
+      <c r="V2" s="20">
         <f t="shared" ref="V2:V21" si="6">_xlfn.RANK.EQ(C2,$C2:$H2,1)</f>
         <v>4</v>
       </c>
-      <c r="W2" s="28">
+      <c r="W2" s="20">
         <f t="shared" ref="W2:W21" si="7">_xlfn.RANK.EQ(D2,$C2:$H2,1)</f>
         <v>6</v>
       </c>
-      <c r="X2" s="28">
+      <c r="X2" s="20">
         <f t="shared" ref="X2:X21" si="8">_xlfn.RANK.EQ(E2,$C2:$H2,1)</f>
         <v>3</v>
       </c>
-      <c r="Y2" s="28">
+      <c r="Y2" s="20">
         <f t="shared" ref="Y2:Y21" si="9">_xlfn.RANK.EQ(F2,$C2:$H2,1)</f>
         <v>2</v>
       </c>
-      <c r="Z2" s="28">
+      <c r="Z2" s="20">
         <f t="shared" ref="Z2:Z21" si="10">_xlfn.RANK.EQ(G2,$C2:$H2,1)</f>
         <v>5</v>
       </c>
-      <c r="AA2" s="28">
+      <c r="AA2" s="20">
         <f t="shared" ref="AA2:AA21" si="11">_xlfn.RANK.EQ(H2,$C2:$H2,1)</f>
         <v>1</v>
       </c>
     </row>
     <row r="3" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A3" s="46"/>
-      <c r="B3" s="5" t="s">
+      <c r="A3" s="33"/>
+      <c r="B3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C3" s="40">
+      <c r="C3" s="28">
         <v>0.211147325805595</v>
       </c>
-      <c r="D3" s="40">
+      <c r="D3" s="28">
         <v>0.21741482546177901</v>
       </c>
-      <c r="E3" s="40">
+      <c r="E3" s="28">
         <v>0.20682050164565499</v>
       </c>
-      <c r="F3" s="40">
+      <c r="F3" s="28">
         <v>0.20462243676016501</v>
       </c>
-      <c r="G3" s="40">
+      <c r="G3" s="28">
         <v>0.21336129955326399</v>
       </c>
-      <c r="H3" s="18">
+      <c r="H3" s="50">
         <v>0.20436586004335999</v>
       </c>
-      <c r="J3" s="50"/>
-      <c r="K3" s="5" t="s">
+      <c r="J3" s="41"/>
+      <c r="K3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L3" s="6">
+      <c r="L3" s="5">
         <f t="shared" si="0"/>
         <v>0.51969374925791156</v>
       </c>
-      <c r="M3" s="6">
+      <c r="M3" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N3" s="6">
+      <c r="N3" s="5">
         <f t="shared" si="2"/>
         <v>0.18811005498031258</v>
       </c>
-      <c r="O3" s="6">
+      <c r="O3" s="5">
         <f t="shared" si="3"/>
         <v>1.9662609914104505E-2</v>
       </c>
-      <c r="P3" s="6">
+      <c r="P3" s="5">
         <f t="shared" si="4"/>
         <v>0.68936036087632369</v>
       </c>
-      <c r="Q3" s="6">
+      <c r="Q3" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T3" s="50"/>
-      <c r="U3" s="5" t="s">
+      <c r="T3" s="41"/>
+      <c r="U3" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="V3" s="29">
+      <c r="V3" s="21">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W3" s="29">
+      <c r="W3" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X3" s="29">
+      <c r="X3" s="21">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y3" s="29">
+      <c r="Y3" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z3" s="29">
+      <c r="Z3" s="21">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AA3" s="29">
+      <c r="AA3" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="4" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A4" s="46"/>
-      <c r="B4" s="5" t="s">
+      <c r="A4" s="33"/>
+      <c r="B4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C4" s="40">
+      <c r="C4" s="28">
         <v>1.4091013924442799</v>
       </c>
-      <c r="D4" s="40">
+      <c r="D4" s="28">
         <v>1.1911340665311201</v>
       </c>
-      <c r="E4" s="40">
+      <c r="E4" s="28">
         <v>1.1640927271342001</v>
       </c>
-      <c r="F4" s="40">
+      <c r="F4" s="28">
         <v>1.27119381934459</v>
       </c>
-      <c r="G4" s="40">
+      <c r="G4" s="28">
         <v>1.26485569721611</v>
       </c>
-      <c r="H4" s="18">
+      <c r="H4" s="50">
         <v>1.15196640291482</v>
       </c>
-      <c r="J4" s="50"/>
-      <c r="K4" s="5" t="s">
+      <c r="J4" s="41"/>
+      <c r="K4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L4" s="6">
+      <c r="L4" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M4" s="6">
+      <c r="M4" s="5">
         <f t="shared" si="1"/>
         <v>0.15232335236824179</v>
       </c>
-      <c r="N4" s="6">
+      <c r="N4" s="5">
         <f t="shared" si="2"/>
         <v>4.7159370420845746E-2</v>
       </c>
-      <c r="O4" s="6">
+      <c r="O4" s="5">
         <f t="shared" si="3"/>
         <v>0.46367636177382276</v>
       </c>
-      <c r="P4" s="6">
+      <c r="P4" s="5">
         <f t="shared" si="4"/>
         <v>0.43902735488417971</v>
       </c>
-      <c r="Q4" s="6">
+      <c r="Q4" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T4" s="50"/>
-      <c r="U4" s="5" t="s">
+      <c r="T4" s="41"/>
+      <c r="U4" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V4" s="29">
+      <c r="V4" s="21">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W4" s="29">
+      <c r="W4" s="21">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="X4" s="29">
+      <c r="X4" s="21">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y4" s="29">
+      <c r="Y4" s="21">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="Z4" s="29">
+      <c r="Z4" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA4" s="29">
+      <c r="AA4" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="5" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A5" s="47"/>
-      <c r="B5" s="7" t="s">
+      <c r="A5" s="34"/>
+      <c r="B5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C5" s="41">
+      <c r="C5" s="29">
         <v>0.86985239487362098</v>
       </c>
-      <c r="D5" s="41">
+      <c r="D5" s="29">
         <v>0.90134458962018804</v>
       </c>
-      <c r="E5" s="41">
+      <c r="E5" s="29">
         <v>0.80388099671295898</v>
       </c>
-      <c r="F5" s="41">
+      <c r="F5" s="29">
         <v>0.79704669662410699</v>
       </c>
-      <c r="G5" s="41">
+      <c r="G5" s="29">
         <v>0.87397939619241105</v>
       </c>
-      <c r="H5" s="19">
+      <c r="H5" s="51">
         <v>0.79362101541715302</v>
       </c>
-      <c r="J5" s="51"/>
-      <c r="K5" s="7" t="s">
+      <c r="J5" s="42"/>
+      <c r="K5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L5" s="8">
+      <c r="L5" s="6">
         <f t="shared" si="0"/>
         <v>0.70765735374495409</v>
       </c>
-      <c r="M5" s="8">
+      <c r="M5" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N5" s="8">
+      <c r="N5" s="6">
         <f t="shared" si="2"/>
         <v>9.524360263490865E-2</v>
       </c>
-      <c r="O5" s="8">
+      <c r="O5" s="6">
         <f t="shared" si="3"/>
         <v>3.1800664174930916E-2</v>
       </c>
-      <c r="P5" s="8">
+      <c r="P5" s="6">
         <f t="shared" si="4"/>
         <v>0.74596838593380055</v>
       </c>
-      <c r="Q5" s="8">
+      <c r="Q5" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T5" s="51"/>
-      <c r="U5" s="7" t="s">
+      <c r="T5" s="42"/>
+      <c r="U5" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V5" s="30">
+      <c r="V5" s="22">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W5" s="30">
+      <c r="W5" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X5" s="30">
+      <c r="X5" s="22">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y5" s="30">
+      <c r="Y5" s="22">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z5" s="30">
+      <c r="Z5" s="22">
         <f t="shared" si="10"/>
         <v>5</v>
       </c>
-      <c r="AA5" s="30">
+      <c r="AA5" s="22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="6" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A6" s="45" t="s">
+      <c r="A6" s="32" t="s">
         <v>16</v>
       </c>
-      <c r="B6" s="9" t="s">
+      <c r="B6" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C6" s="39">
+      <c r="C6" s="27">
         <v>5.3456444230275497E-3</v>
       </c>
-      <c r="D6" s="39">
+      <c r="D6" s="27">
         <v>7.0278279836468302E-3</v>
       </c>
-      <c r="E6" s="39">
+      <c r="E6" s="27">
         <v>4.9826929662012904E-3</v>
       </c>
-      <c r="F6" s="39">
+      <c r="F6" s="27">
         <v>5.0611836798943001E-3</v>
       </c>
-      <c r="G6" s="39">
+      <c r="G6" s="27">
         <v>5.1150876836121599E-3</v>
       </c>
-      <c r="H6" s="17">
+      <c r="H6" s="49">
         <v>4.6105744718656604E-3</v>
       </c>
-      <c r="J6" s="50" t="s">
+      <c r="J6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="K6" s="5" t="s">
+      <c r="K6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="L6" s="6">
+      <c r="L6" s="5">
         <f t="shared" si="0"/>
         <v>0.30409303268329851</v>
       </c>
-      <c r="M6" s="6">
+      <c r="M6" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N6" s="6">
+      <c r="N6" s="5">
         <f t="shared" si="2"/>
         <v>0.15394268434072186</v>
       </c>
-      <c r="O6" s="6">
+      <c r="O6" s="5">
         <f t="shared" si="3"/>
         <v>0.18641371533125015</v>
       </c>
-      <c r="P6" s="6">
+      <c r="P6" s="5">
         <f t="shared" si="4"/>
         <v>0.20871340522936938</v>
       </c>
-      <c r="Q6" s="6">
+      <c r="Q6" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T6" s="50" t="s">
+      <c r="T6" s="41" t="s">
         <v>16</v>
       </c>
-      <c r="U6" s="5" t="s">
+      <c r="U6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="V6" s="28">
+      <c r="V6" s="20">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W6" s="28">
+      <c r="W6" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X6" s="28">
+      <c r="X6" s="20">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y6" s="28">
+      <c r="Y6" s="20">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="Z6" s="28">
+      <c r="Z6" s="20">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA6" s="28">
+      <c r="AA6" s="20">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="7" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A7" s="46"/>
-      <c r="B7" s="5" t="s">
+      <c r="A7" s="33"/>
+      <c r="B7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C7" s="40">
+      <c r="C7" s="28">
         <v>0.11126879751214799</v>
       </c>
-      <c r="D7" s="40">
+      <c r="D7" s="28">
         <v>0.130695442686767</v>
       </c>
-      <c r="E7" s="18">
+      <c r="E7" s="50">
         <v>0.10177842346553299</v>
       </c>
-      <c r="F7" s="40">
+      <c r="F7" s="28">
         <v>0.104857247156164</v>
       </c>
-      <c r="G7" s="40">
+      <c r="G7" s="28">
         <v>0.109093867247225</v>
       </c>
-      <c r="H7" s="40">
+      <c r="H7" s="28">
         <v>0.103420179885594</v>
       </c>
-      <c r="J7" s="50"/>
-      <c r="K7" s="5" t="s">
+      <c r="J7" s="41"/>
+      <c r="K7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L7" s="6">
+      <c r="L7" s="5">
         <f t="shared" si="0"/>
         <v>0.3281933720072413</v>
       </c>
-      <c r="M7" s="6">
+      <c r="M7" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N7" s="6">
+      <c r="N7" s="5">
         <f t="shared" si="2"/>
         <v>0</v>
       </c>
-      <c r="O7" s="6">
+      <c r="O7" s="5">
         <f t="shared" si="3"/>
         <v>0.10647099090940187</v>
       </c>
-      <c r="P7" s="6">
+      <c r="P7" s="5">
         <f t="shared" si="4"/>
         <v>0.25298056226764259</v>
       </c>
-      <c r="Q7" s="6">
+      <c r="Q7" s="5">
         <f t="shared" si="5"/>
         <v>5.6774745954986008E-2</v>
       </c>
-      <c r="T7" s="50"/>
-      <c r="U7" s="5" t="s">
+      <c r="T7" s="41"/>
+      <c r="U7" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="V7" s="29">
+      <c r="V7" s="21">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W7" s="29">
+      <c r="W7" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X7" s="29">
+      <c r="X7" s="21">
         <f t="shared" si="8"/>
         <v>1</v>
       </c>
-      <c r="Y7" s="29">
+      <c r="Y7" s="21">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="Z7" s="29">
+      <c r="Z7" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA7" s="29">
+      <c r="AA7" s="21">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="8" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A8" s="46"/>
-      <c r="B8" s="5" t="s">
+      <c r="A8" s="33"/>
+      <c r="B8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C8" s="40">
+      <c r="C8" s="28">
         <v>0.41571482254410203</v>
       </c>
-      <c r="D8" s="40">
+      <c r="D8" s="28">
         <v>0.536740857109125</v>
       </c>
-      <c r="E8" s="40">
+      <c r="E8" s="28">
         <v>0.41166604191432099</v>
       </c>
-      <c r="F8" s="40">
+      <c r="F8" s="28">
         <v>0.423133967877242</v>
       </c>
-      <c r="G8" s="40">
+      <c r="G8" s="28">
         <v>0.42032393212619001</v>
       </c>
-      <c r="H8" s="18">
+      <c r="H8" s="50">
         <v>0.27273015174051102</v>
       </c>
-      <c r="J8" s="50"/>
-      <c r="K8" s="5" t="s">
+      <c r="J8" s="41"/>
+      <c r="K8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L8" s="6">
+      <c r="L8" s="5">
         <f t="shared" si="0"/>
         <v>0.54158663984460254</v>
       </c>
-      <c r="M8" s="6">
+      <c r="M8" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N8" s="6">
+      <c r="N8" s="5">
         <f t="shared" si="2"/>
         <v>0.52625097145142852</v>
       </c>
-      <c r="O8" s="6">
+      <c r="O8" s="5">
         <f t="shared" si="3"/>
         <v>0.56968832353497145</v>
       </c>
-      <c r="P8" s="6">
+      <c r="P8" s="5">
         <f t="shared" si="4"/>
         <v>0.55904468032691068</v>
       </c>
-      <c r="Q8" s="6">
+      <c r="Q8" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T8" s="50"/>
-      <c r="U8" s="5" t="s">
+      <c r="T8" s="41"/>
+      <c r="U8" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V8" s="29">
+      <c r="V8" s="21">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="W8" s="29">
+      <c r="W8" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X8" s="29">
+      <c r="X8" s="21">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y8" s="29">
+      <c r="Y8" s="21">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="Z8" s="29">
+      <c r="Z8" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA8" s="29">
+      <c r="AA8" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="9" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A9" s="47"/>
-      <c r="B9" s="7" t="s">
+      <c r="A9" s="34"/>
+      <c r="B9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C9" s="41">
+      <c r="C9" s="29">
         <v>0.811843594884327</v>
       </c>
-      <c r="D9" s="41">
+      <c r="D9" s="29">
         <v>1.07541097354486</v>
       </c>
-      <c r="E9" s="41">
+      <c r="E9" s="29">
         <v>0.75848807484806902</v>
       </c>
-      <c r="F9" s="41">
+      <c r="F9" s="29">
         <v>0.76965309276080396</v>
       </c>
-      <c r="G9" s="41">
+      <c r="G9" s="29">
         <v>0.77883564797257798</v>
       </c>
-      <c r="H9" s="19">
+      <c r="H9" s="51">
         <v>0.701002635668586</v>
       </c>
-      <c r="J9" s="51"/>
-      <c r="K9" s="7" t="s">
+      <c r="J9" s="42"/>
+      <c r="K9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L9" s="8">
+      <c r="L9" s="6">
         <f t="shared" si="0"/>
         <v>0.29604297768702253</v>
       </c>
-      <c r="M9" s="8">
+      <c r="M9" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N9" s="8">
+      <c r="N9" s="6">
         <f t="shared" si="2"/>
         <v>0.15353674949001669</v>
       </c>
-      <c r="O9" s="8">
+      <c r="O9" s="6">
         <f t="shared" si="3"/>
         <v>0.18335718024234812</v>
       </c>
-      <c r="P9" s="8">
+      <c r="P9" s="6">
         <f t="shared" si="4"/>
         <v>0.20788268964702508</v>
       </c>
-      <c r="Q9" s="8">
+      <c r="Q9" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T9" s="51"/>
-      <c r="U9" s="7" t="s">
+      <c r="T9" s="42"/>
+      <c r="U9" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V9" s="30">
+      <c r="V9" s="22">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W9" s="30">
+      <c r="W9" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X9" s="30">
+      <c r="X9" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y9" s="30">
+      <c r="Y9" s="22">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="Z9" s="30">
+      <c r="Z9" s="22">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA9" s="30">
+      <c r="AA9" s="22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="10" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A10" s="45" t="s">
+      <c r="A10" s="32" t="s">
         <v>15</v>
       </c>
-      <c r="B10" s="9" t="s">
+      <c r="B10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="C10" s="39">
+      <c r="C10" s="27">
         <v>1.0842750954333799E-2</v>
       </c>
-      <c r="D10" s="39">
+      <c r="D10" s="27">
         <v>1.09084152859295E-2</v>
       </c>
-      <c r="E10" s="39">
+      <c r="E10" s="27">
         <v>9.9099245556324295E-3</v>
       </c>
-      <c r="F10" s="39">
+      <c r="F10" s="27">
         <v>9.5601337241708693E-3</v>
       </c>
-      <c r="G10" s="39">
+      <c r="G10" s="27">
         <v>1.0802813579855E-2</v>
       </c>
-      <c r="H10" s="17">
+      <c r="H10" s="49">
         <v>9.29512707072511E-3</v>
       </c>
-      <c r="J10" s="49" t="s">
+      <c r="J10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="K10" s="9" t="s">
+      <c r="K10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L10" s="6">
+      <c r="L10" s="5">
         <f t="shared" si="0"/>
         <v>0.9592978297511574</v>
       </c>
-      <c r="M10" s="6">
+      <c r="M10" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N10" s="6">
+      <c r="N10" s="5">
         <f t="shared" si="2"/>
         <v>0.38108347852118279</v>
       </c>
-      <c r="O10" s="6">
+      <c r="O10" s="5">
         <f t="shared" si="3"/>
         <v>0.1642649161806374</v>
       </c>
-      <c r="P10" s="6">
+      <c r="P10" s="5">
         <f t="shared" si="4"/>
         <v>0.93454256649291856</v>
       </c>
-      <c r="Q10" s="6">
+      <c r="Q10" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T10" s="49" t="s">
+      <c r="T10" s="40" t="s">
         <v>15</v>
       </c>
-      <c r="U10" s="9" t="s">
+      <c r="U10" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V10" s="29">
+      <c r="V10" s="21">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W10" s="29">
+      <c r="W10" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X10" s="29">
+      <c r="X10" s="21">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y10" s="29">
+      <c r="Y10" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z10" s="29">
+      <c r="Z10" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA10" s="29">
+      <c r="AA10" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="11" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A11" s="46"/>
-      <c r="B11" s="5" t="s">
+      <c r="A11" s="33"/>
+      <c r="B11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C11" s="40">
+      <c r="C11" s="28">
         <v>0.17981940133528601</v>
       </c>
-      <c r="D11" s="40">
+      <c r="D11" s="28">
         <v>0.180189936509011</v>
       </c>
-      <c r="E11" s="40">
+      <c r="E11" s="28">
         <v>0.176033358788935</v>
       </c>
-      <c r="F11" s="40">
+      <c r="F11" s="28">
         <v>0.16991861892221499</v>
       </c>
-      <c r="G11" s="40">
+      <c r="G11" s="28">
         <v>0.17938372384101101</v>
       </c>
-      <c r="H11" s="18">
+      <c r="H11" s="50">
         <v>0.16791121269067799</v>
       </c>
-      <c r="J11" s="50"/>
-      <c r="K11" s="5" t="s">
+      <c r="J11" s="41"/>
+      <c r="K11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L11" s="6">
+      <c r="L11" s="5">
         <f t="shared" si="0"/>
         <v>0.96982298981497173</v>
       </c>
-      <c r="M11" s="6">
+      <c r="M11" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N11" s="6">
+      <c r="N11" s="5">
         <f t="shared" si="2"/>
         <v>0.6614812922276232</v>
       </c>
-      <c r="O11" s="6">
+      <c r="O11" s="5">
         <f t="shared" si="3"/>
         <v>0.16348655293800171</v>
       </c>
-      <c r="P11" s="6">
+      <c r="P11" s="5">
         <f t="shared" si="4"/>
         <v>0.93434067905361173</v>
       </c>
-      <c r="Q11" s="6">
+      <c r="Q11" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T11" s="50"/>
-      <c r="U11" s="5" t="s">
+      <c r="T11" s="41"/>
+      <c r="U11" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="V11" s="29">
+      <c r="V11" s="21">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W11" s="29">
+      <c r="W11" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X11" s="29">
+      <c r="X11" s="21">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y11" s="29">
+      <c r="Y11" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z11" s="29">
+      <c r="Z11" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA11" s="29">
+      <c r="AA11" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="12" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A12" s="46"/>
-      <c r="B12" s="5" t="s">
+      <c r="A12" s="33"/>
+      <c r="B12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C12" s="40">
+      <c r="C12" s="28">
         <v>0.38617387467259601</v>
       </c>
-      <c r="D12" s="40">
+      <c r="D12" s="28">
         <v>0.38340892717400099</v>
       </c>
-      <c r="E12" s="40">
+      <c r="E12" s="28">
         <v>0.344987356141638</v>
       </c>
-      <c r="F12" s="40">
+      <c r="F12" s="28">
         <v>0.34859918570350701</v>
       </c>
-      <c r="G12" s="40">
+      <c r="G12" s="28">
         <v>0.38264162158033099</v>
       </c>
-      <c r="H12" s="18">
+      <c r="H12" s="50">
         <v>0.32520906862522603</v>
       </c>
-      <c r="J12" s="50"/>
-      <c r="K12" s="5" t="s">
+      <c r="J12" s="41"/>
+      <c r="K12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L12" s="6">
+      <c r="L12" s="5">
         <f t="shared" si="0"/>
         <v>1</v>
       </c>
-      <c r="M12" s="6">
+      <c r="M12" s="5">
         <f t="shared" si="1"/>
         <v>0.95464682531021849</v>
       </c>
-      <c r="N12" s="6">
+      <c r="N12" s="5">
         <f t="shared" si="2"/>
         <v>0.32442139651923341</v>
       </c>
-      <c r="O12" s="6">
+      <c r="O12" s="5">
         <f t="shared" si="3"/>
         <v>0.38366589832348086</v>
       </c>
-      <c r="P12" s="6">
+      <c r="P12" s="5">
         <f t="shared" si="4"/>
         <v>0.94206078356879486</v>
       </c>
-      <c r="Q12" s="6">
+      <c r="Q12" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T12" s="50"/>
-      <c r="U12" s="5" t="s">
+      <c r="T12" s="41"/>
+      <c r="U12" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V12" s="29">
+      <c r="V12" s="21">
         <f t="shared" si="6"/>
         <v>6</v>
       </c>
-      <c r="W12" s="29">
+      <c r="W12" s="21">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="X12" s="29">
+      <c r="X12" s="21">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y12" s="29">
+      <c r="Y12" s="21">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="Z12" s="29">
+      <c r="Z12" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA12" s="29">
+      <c r="AA12" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="13" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A13" s="47"/>
-      <c r="B13" s="7" t="s">
+      <c r="A13" s="34"/>
+      <c r="B13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C13" s="41">
+      <c r="C13" s="29">
         <v>0.94747590153558503</v>
       </c>
-      <c r="D13" s="41">
+      <c r="D13" s="29">
         <v>0.95317938034512195</v>
       </c>
-      <c r="E13" s="41">
+      <c r="E13" s="29">
         <v>0.86827912351140701</v>
       </c>
-      <c r="F13" s="41">
+      <c r="F13" s="29">
         <v>0.83539354158979995</v>
       </c>
-      <c r="G13" s="41">
+      <c r="G13" s="29">
         <v>0.94395239951839605</v>
       </c>
-      <c r="H13" s="19">
+      <c r="H13" s="51">
         <v>0.81186535064333398</v>
       </c>
-      <c r="J13" s="51"/>
-      <c r="K13" s="7" t="s">
+      <c r="J13" s="42"/>
+      <c r="K13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L13" s="8">
+      <c r="L13" s="6">
         <f t="shared" si="0"/>
         <v>0.95963968459768045</v>
       </c>
-      <c r="M13" s="8">
+      <c r="M13" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N13" s="8">
+      <c r="N13" s="6">
         <f t="shared" si="2"/>
         <v>0.39920857813708827</v>
       </c>
-      <c r="O13" s="8">
+      <c r="O13" s="6">
         <f t="shared" si="3"/>
         <v>0.16649578952717584</v>
       </c>
-      <c r="P13" s="8">
+      <c r="P13" s="6">
         <f t="shared" si="4"/>
         <v>0.93470584027504267</v>
       </c>
-      <c r="Q13" s="8">
+      <c r="Q13" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T13" s="51"/>
-      <c r="U13" s="7" t="s">
+      <c r="T13" s="42"/>
+      <c r="U13" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V13" s="29">
+      <c r="V13" s="21">
         <f t="shared" si="6"/>
         <v>5</v>
       </c>
-      <c r="W13" s="29">
+      <c r="W13" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X13" s="29">
+      <c r="X13" s="21">
         <f t="shared" si="8"/>
         <v>3</v>
       </c>
-      <c r="Y13" s="29">
+      <c r="Y13" s="21">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z13" s="29">
+      <c r="Z13" s="21">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA13" s="29">
+      <c r="AA13" s="21">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="14" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A14" s="46" t="s">
+      <c r="A14" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B14" s="5" t="s">
+      <c r="B14" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C14" s="40">
+      <c r="C14" s="28">
         <v>7.8081273962780197E-3</v>
       </c>
-      <c r="D14" s="40">
+      <c r="D14" s="28">
         <v>1.11831238540654E-2</v>
       </c>
-      <c r="E14" s="40">
+      <c r="E14" s="28">
         <v>8.76980310500638E-3</v>
       </c>
-      <c r="F14" s="40">
+      <c r="F14" s="28">
         <v>7.2839018527337696E-3</v>
       </c>
-      <c r="G14" s="40">
+      <c r="G14" s="28">
         <v>7.7163709723725299E-3</v>
       </c>
-      <c r="H14" s="18">
+      <c r="H14" s="50">
         <v>7.2386034379105296E-3</v>
       </c>
-      <c r="J14" s="49" t="s">
+      <c r="J14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="K14" s="9" t="s">
+      <c r="K14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L14" s="6">
+      <c r="L14" s="5">
         <f t="shared" si="0"/>
         <v>0.14438357475220365</v>
       </c>
-      <c r="M14" s="6">
+      <c r="M14" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N14" s="6">
+      <c r="N14" s="5">
         <f t="shared" si="2"/>
         <v>0.38818398830559692</v>
       </c>
-      <c r="O14" s="6">
+      <c r="O14" s="5">
         <f t="shared" si="3"/>
         <v>1.1483883981869983E-2</v>
       </c>
-      <c r="P14" s="6">
+      <c r="P14" s="5">
         <f t="shared" si="4"/>
         <v>0.12112183080743932</v>
       </c>
-      <c r="Q14" s="6">
+      <c r="Q14" s="5">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T14" s="49" t="s">
+      <c r="T14" s="40" t="s">
         <v>18</v>
       </c>
-      <c r="U14" s="9" t="s">
+      <c r="U14" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V14" s="28">
+      <c r="V14" s="20">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W14" s="28">
+      <c r="W14" s="20">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X14" s="28">
+      <c r="X14" s="20">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="Y14" s="28">
+      <c r="Y14" s="20">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z14" s="28">
+      <c r="Z14" s="20">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AA14" s="28">
+      <c r="AA14" s="20">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="15" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A15" s="46"/>
-      <c r="B15" s="5" t="s">
+      <c r="A15" s="33"/>
+      <c r="B15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C15" s="40">
+      <c r="C15" s="28">
         <v>0.15367394095789</v>
       </c>
-      <c r="D15" s="40">
+      <c r="D15" s="28">
         <v>0.17554973766689599</v>
       </c>
-      <c r="E15" s="40">
+      <c r="E15" s="28">
         <v>0.15990807401794599</v>
       </c>
-      <c r="F15" s="18">
+      <c r="F15" s="50">
         <v>0.143112445993757</v>
       </c>
-      <c r="G15" s="40">
+      <c r="G15" s="28">
         <v>0.15064552543812801</v>
       </c>
-      <c r="H15" s="40">
+      <c r="H15" s="28">
         <v>0.14321941812262601</v>
       </c>
-      <c r="J15" s="50"/>
-      <c r="K15" s="5" t="s">
+      <c r="J15" s="41"/>
+      <c r="K15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L15" s="6">
+      <c r="L15" s="5">
         <f t="shared" si="0"/>
         <v>0.3255973115930289</v>
       </c>
-      <c r="M15" s="6">
+      <c r="M15" s="5">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N15" s="6">
+      <c r="N15" s="5">
         <f t="shared" si="2"/>
         <v>0.51778761905998727</v>
       </c>
-      <c r="O15" s="6">
+      <c r="O15" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P15" s="6">
+      <c r="P15" s="5">
         <f t="shared" si="4"/>
         <v>0.2322351545338503</v>
       </c>
-      <c r="Q15" s="6">
+      <c r="Q15" s="5">
         <f t="shared" si="5"/>
         <v>3.2978132066923487E-3</v>
       </c>
-      <c r="T15" s="50"/>
-      <c r="U15" s="5" t="s">
+      <c r="T15" s="41"/>
+      <c r="U15" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="V15" s="29">
+      <c r="V15" s="21">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W15" s="29">
+      <c r="W15" s="21">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X15" s="29">
+      <c r="X15" s="21">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="Y15" s="29">
+      <c r="Y15" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Z15" s="29">
+      <c r="Z15" s="21">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AA15" s="29">
+      <c r="AA15" s="21">
         <f t="shared" si="11"/>
         <v>2</v>
       </c>
     </row>
     <row r="16" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A16" s="46"/>
-      <c r="B16" s="5" t="s">
+      <c r="A16" s="33"/>
+      <c r="B16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C16" s="18">
+      <c r="C16" s="50">
         <v>0.462099711326589</v>
       </c>
-      <c r="D16" s="40">
+      <c r="D16" s="28">
         <v>0.51550167458249896</v>
       </c>
-      <c r="E16" s="40">
+      <c r="E16" s="28">
         <v>0.75489484472235002</v>
       </c>
-      <c r="F16" s="40">
+      <c r="F16" s="28">
         <v>0.493281684153555</v>
       </c>
-      <c r="G16" s="40">
+      <c r="G16" s="28">
         <v>0.48897065202831502</v>
       </c>
-      <c r="H16" s="40">
+      <c r="H16" s="28">
         <v>0.53579992249151998</v>
       </c>
-      <c r="J16" s="50"/>
-      <c r="K16" s="5" t="s">
+      <c r="J16" s="41"/>
+      <c r="K16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L16" s="6">
+      <c r="L16" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M16" s="6">
+      <c r="M16" s="5">
         <f t="shared" si="1"/>
         <v>0.18238678572477629</v>
       </c>
-      <c r="N16" s="6">
+      <c r="N16" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O16" s="6">
+      <c r="O16" s="5">
         <f t="shared" si="3"/>
         <v>0.10649757892259229</v>
       </c>
-      <c r="P16" s="6">
+      <c r="P16" s="5">
         <f t="shared" si="4"/>
         <v>9.1773863827871421E-2</v>
       </c>
-      <c r="Q16" s="6">
+      <c r="Q16" s="5">
         <f t="shared" si="5"/>
         <v>0.25171255515819302</v>
       </c>
-      <c r="T16" s="50"/>
-      <c r="U16" s="5" t="s">
+      <c r="T16" s="41"/>
+      <c r="U16" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V16" s="29">
+      <c r="V16" s="21">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W16" s="29">
+      <c r="W16" s="21">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="X16" s="29">
+      <c r="X16" s="21">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y16" s="29">
+      <c r="Y16" s="21">
         <f t="shared" si="9"/>
         <v>3</v>
       </c>
-      <c r="Z16" s="29">
+      <c r="Z16" s="21">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AA16" s="29">
+      <c r="AA16" s="21">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="17" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A17" s="47"/>
-      <c r="B17" s="7" t="s">
+      <c r="A17" s="34"/>
+      <c r="B17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C17" s="41">
+      <c r="C17" s="29">
         <v>0.72884043174402302</v>
       </c>
-      <c r="D17" s="41">
+      <c r="D17" s="29">
         <v>1.04419930496613</v>
       </c>
-      <c r="E17" s="41">
+      <c r="E17" s="29">
         <v>0.82438954377586604</v>
       </c>
-      <c r="F17" s="41">
+      <c r="F17" s="29">
         <v>0.68219872295157102</v>
       </c>
-      <c r="G17" s="41">
+      <c r="G17" s="29">
         <v>0.72021476310203103</v>
       </c>
-      <c r="H17" s="19">
+      <c r="H17" s="51">
         <v>0.68021424727911195</v>
       </c>
-      <c r="J17" s="51"/>
-      <c r="K17" s="7" t="s">
+      <c r="J17" s="42"/>
+      <c r="K17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L17" s="8">
+      <c r="L17" s="6">
         <f t="shared" si="0"/>
         <v>0.13359390293082732</v>
       </c>
-      <c r="M17" s="8">
+      <c r="M17" s="6">
         <f t="shared" si="1"/>
         <v>1</v>
       </c>
-      <c r="N17" s="8">
+      <c r="N17" s="6">
         <f t="shared" si="2"/>
         <v>0.39610223950656498</v>
       </c>
-      <c r="O17" s="8">
+      <c r="O17" s="6">
         <f t="shared" si="3"/>
         <v>5.4520800525978642E-3</v>
       </c>
-      <c r="P17" s="8">
+      <c r="P17" s="6">
         <f t="shared" si="4"/>
         <v>0.10989603825252232</v>
       </c>
-      <c r="Q17" s="8">
+      <c r="Q17" s="6">
         <f t="shared" si="5"/>
         <v>0</v>
       </c>
-      <c r="T17" s="51"/>
-      <c r="U17" s="7" t="s">
+      <c r="T17" s="42"/>
+      <c r="U17" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V17" s="30">
+      <c r="V17" s="22">
         <f t="shared" si="6"/>
         <v>4</v>
       </c>
-      <c r="W17" s="30">
+      <c r="W17" s="22">
         <f t="shared" si="7"/>
         <v>6</v>
       </c>
-      <c r="X17" s="30">
+      <c r="X17" s="22">
         <f t="shared" si="8"/>
         <v>5</v>
       </c>
-      <c r="Y17" s="30">
+      <c r="Y17" s="22">
         <f t="shared" si="9"/>
         <v>2</v>
       </c>
-      <c r="Z17" s="30">
+      <c r="Z17" s="22">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AA17" s="30">
+      <c r="AA17" s="22">
         <f t="shared" si="11"/>
         <v>1</v>
       </c>
     </row>
     <row r="18" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A18" s="46" t="s">
+      <c r="A18" s="33" t="s">
         <v>19</v>
       </c>
-      <c r="B18" s="5" t="s">
+      <c r="B18" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="C18" s="40">
+      <c r="C18" s="28">
         <v>1.71890334067566E-2</v>
       </c>
-      <c r="D18" s="40">
+      <c r="D18" s="28">
         <v>1.7195256494323501E-2</v>
       </c>
-      <c r="E18" s="40">
+      <c r="E18" s="28">
         <v>1.6826680007308199E-2</v>
       </c>
-      <c r="F18" s="18">
+      <c r="F18" s="50">
         <v>1.6184995467215801E-2</v>
       </c>
-      <c r="G18" s="40">
+      <c r="G18" s="28">
         <v>1.7190782514460001E-2</v>
       </c>
-      <c r="H18" s="40">
+      <c r="H18" s="28">
         <v>1.7233246161502101E-2</v>
       </c>
-      <c r="J18" s="49" t="s">
+      <c r="J18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="K18" s="9" t="s">
+      <c r="K18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="L18" s="6">
+      <c r="L18" s="5">
         <f t="shared" si="0"/>
         <v>0.95782234632756169</v>
       </c>
-      <c r="M18" s="6">
+      <c r="M18" s="5">
         <f t="shared" si="1"/>
         <v>0.96375898686672035</v>
       </c>
-      <c r="N18" s="6">
+      <c r="N18" s="5">
         <f t="shared" si="2"/>
         <v>0.61214797527922304</v>
       </c>
-      <c r="O18" s="6">
+      <c r="O18" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P18" s="6">
+      <c r="P18" s="5">
         <f t="shared" si="4"/>
         <v>0.95949094307921123</v>
       </c>
-      <c r="Q18" s="6">
+      <c r="Q18" s="5">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T18" s="49" t="s">
+      <c r="T18" s="40" t="s">
         <v>19</v>
       </c>
-      <c r="U18" s="9" t="s">
+      <c r="U18" s="32" t="s">
         <v>7</v>
       </c>
-      <c r="V18" s="28">
+      <c r="V18" s="20">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="W18" s="28">
+      <c r="W18" s="20">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="X18" s="28">
+      <c r="X18" s="20">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y18" s="28">
+      <c r="Y18" s="20">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Z18" s="28">
+      <c r="Z18" s="20">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA18" s="28">
+      <c r="AA18" s="20">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="19" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A19" s="46"/>
-      <c r="B19" s="5" t="s">
+      <c r="A19" s="33"/>
+      <c r="B19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="C19" s="40">
+      <c r="C19" s="28">
         <v>0.30490033493722701</v>
       </c>
-      <c r="D19" s="40">
+      <c r="D19" s="28">
         <v>0.30501984460233</v>
       </c>
-      <c r="E19" s="40">
+      <c r="E19" s="28">
         <v>0.31717312643016699</v>
       </c>
-      <c r="F19" s="18">
+      <c r="F19" s="50">
         <v>0.29933501405315499</v>
       </c>
-      <c r="G19" s="40">
+      <c r="G19" s="28">
         <v>0.30498238907076902</v>
       </c>
-      <c r="H19" s="40">
+      <c r="H19" s="28">
         <v>0.31060399907206998</v>
       </c>
-      <c r="J19" s="50"/>
-      <c r="K19" s="5" t="s">
+      <c r="J19" s="41"/>
+      <c r="K19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="L19" s="6">
+      <c r="L19" s="5">
         <f t="shared" si="0"/>
         <v>0.31199045988991869</v>
       </c>
-      <c r="M19" s="6">
+      <c r="M19" s="5">
         <f t="shared" si="1"/>
         <v>0.3186901410320222</v>
       </c>
-      <c r="N19" s="6">
+      <c r="N19" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O19" s="6">
+      <c r="O19" s="5">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P19" s="6">
+      <c r="P19" s="5">
         <f t="shared" si="4"/>
         <v>0.31659039354925317</v>
       </c>
-      <c r="Q19" s="6">
+      <c r="Q19" s="5">
         <f t="shared" si="5"/>
         <v>0.63173640689904775</v>
       </c>
-      <c r="T19" s="50"/>
-      <c r="U19" s="5" t="s">
+      <c r="T19" s="41"/>
+      <c r="U19" s="33" t="s">
         <v>8</v>
       </c>
-      <c r="V19" s="29">
+      <c r="V19" s="21">
         <f t="shared" si="6"/>
         <v>2</v>
       </c>
-      <c r="W19" s="29">
+      <c r="W19" s="21">
         <f t="shared" si="7"/>
         <v>4</v>
       </c>
-      <c r="X19" s="29">
+      <c r="X19" s="21">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y19" s="29">
+      <c r="Y19" s="21">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Z19" s="29">
+      <c r="Z19" s="21">
         <f t="shared" si="10"/>
         <v>3</v>
       </c>
-      <c r="AA19" s="29">
+      <c r="AA19" s="21">
         <f t="shared" si="11"/>
         <v>5</v>
       </c>
     </row>
     <row r="20" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A20" s="46"/>
-      <c r="B20" s="5" t="s">
+      <c r="A20" s="33"/>
+      <c r="B20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="C20" s="18">
+      <c r="C20" s="50">
         <v>0.81455985630985395</v>
       </c>
-      <c r="D20" s="40">
+      <c r="D20" s="28">
         <v>0.81552406050453496</v>
       </c>
-      <c r="E20" s="40">
+      <c r="E20" s="28">
         <v>0.94615149512117602</v>
       </c>
-      <c r="F20" s="40">
+      <c r="F20" s="28">
         <v>0.84715268744877403</v>
       </c>
-      <c r="G20" s="40">
+      <c r="G20" s="28">
         <v>0.81532171549201504</v>
       </c>
-      <c r="H20" s="40">
+      <c r="H20" s="28">
         <v>0.84643581505406595</v>
       </c>
-      <c r="J20" s="50"/>
-      <c r="K20" s="5" t="s">
+      <c r="J20" s="41"/>
+      <c r="K20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="L20" s="6">
+      <c r="L20" s="5">
         <f t="shared" si="0"/>
         <v>0</v>
       </c>
-      <c r="M20" s="6">
+      <c r="M20" s="5">
         <f t="shared" si="1"/>
         <v>7.3272451303954579E-3</v>
       </c>
-      <c r="N20" s="6">
+      <c r="N20" s="5">
         <f t="shared" si="2"/>
         <v>1</v>
       </c>
-      <c r="O20" s="6">
+      <c r="O20" s="5">
         <f t="shared" si="3"/>
         <v>0.24768162653291476</v>
       </c>
-      <c r="P20" s="6">
+      <c r="P20" s="5">
         <f t="shared" si="4"/>
         <v>5.7895713515161836E-3</v>
       </c>
-      <c r="Q20" s="6">
+      <c r="Q20" s="5">
         <f t="shared" si="5"/>
         <v>0.24223392179130926</v>
       </c>
-      <c r="T20" s="50"/>
-      <c r="U20" s="5" t="s">
+      <c r="T20" s="41"/>
+      <c r="U20" s="33" t="s">
         <v>9</v>
       </c>
-      <c r="V20" s="29">
+      <c r="V20" s="21">
         <f t="shared" si="6"/>
         <v>1</v>
       </c>
-      <c r="W20" s="29">
+      <c r="W20" s="21">
         <f t="shared" si="7"/>
         <v>3</v>
       </c>
-      <c r="X20" s="29">
+      <c r="X20" s="21">
         <f t="shared" si="8"/>
         <v>6</v>
       </c>
-      <c r="Y20" s="29">
+      <c r="Y20" s="21">
         <f t="shared" si="9"/>
         <v>5</v>
       </c>
-      <c r="Z20" s="29">
+      <c r="Z20" s="21">
         <f t="shared" si="10"/>
         <v>2</v>
       </c>
-      <c r="AA20" s="29">
+      <c r="AA20" s="21">
         <f t="shared" si="11"/>
         <v>4</v>
       </c>
     </row>
     <row r="21" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A21" s="47"/>
-      <c r="B21" s="7" t="s">
+      <c r="A21" s="34"/>
+      <c r="B21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="C21" s="41">
+      <c r="C21" s="29">
         <v>1.06148807695237</v>
       </c>
-      <c r="D21" s="41">
+      <c r="D21" s="29">
         <v>1.0619007805543801</v>
       </c>
-      <c r="E21" s="41">
+      <c r="E21" s="29">
         <v>1.04635347509868</v>
       </c>
-      <c r="F21" s="19">
+      <c r="F21" s="51">
         <v>1.0022119785944099</v>
       </c>
-      <c r="G21" s="41">
+      <c r="G21" s="29">
         <v>1.0616222470501799</v>
       </c>
-      <c r="H21" s="41">
+      <c r="H21" s="29">
         <v>1.0702295372683199</v>
       </c>
-      <c r="J21" s="51"/>
-      <c r="K21" s="7" t="s">
+      <c r="J21" s="42"/>
+      <c r="K21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="L21" s="8">
+      <c r="L21" s="6">
         <f t="shared" si="0"/>
         <v>0.87148229830096891</v>
       </c>
-      <c r="M21" s="8">
+      <c r="M21" s="6">
         <f t="shared" si="1"/>
         <v>0.87754990216762119</v>
       </c>
-      <c r="N21" s="8">
+      <c r="N21" s="6">
         <f t="shared" si="2"/>
         <v>0.64897207963451642</v>
       </c>
-      <c r="O21" s="8">
+      <c r="O21" s="6">
         <f t="shared" si="3"/>
         <v>0</v>
       </c>
-      <c r="P21" s="8">
+      <c r="P21" s="6">
         <f t="shared" si="4"/>
         <v>0.87345487862325233</v>
       </c>
-      <c r="Q21" s="8">
+      <c r="Q21" s="6">
         <f t="shared" si="5"/>
         <v>1</v>
       </c>
-      <c r="T21" s="51"/>
-      <c r="U21" s="7" t="s">
+      <c r="T21" s="42"/>
+      <c r="U21" s="34" t="s">
         <v>10</v>
       </c>
-      <c r="V21" s="30">
+      <c r="V21" s="22">
         <f t="shared" si="6"/>
         <v>3</v>
       </c>
-      <c r="W21" s="30">
+      <c r="W21" s="22">
         <f t="shared" si="7"/>
         <v>5</v>
       </c>
-      <c r="X21" s="30">
+      <c r="X21" s="22">
         <f t="shared" si="8"/>
         <v>2</v>
       </c>
-      <c r="Y21" s="30">
+      <c r="Y21" s="22">
         <f t="shared" si="9"/>
         <v>1</v>
       </c>
-      <c r="Z21" s="30">
+      <c r="Z21" s="22">
         <f t="shared" si="10"/>
         <v>4</v>
       </c>
-      <c r="AA21" s="30">
+      <c r="AA21" s="22">
         <f t="shared" si="11"/>
         <v>6</v>
       </c>
     </row>
     <row r="22" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J22" s="37"/>
-      <c r="K22" s="31" t="s">
+      <c r="J22" s="44"/>
+      <c r="K22" s="23" t="s">
         <v>37</v>
       </c>
-      <c r="L22" s="32">
+      <c r="L22" s="24">
         <f>AVERAGE(L2:L21)</f>
         <v>0.55175803628346853</v>
       </c>
-      <c r="M22" s="32">
+      <c r="M22" s="24">
         <f t="shared" ref="M22:Q22" si="12">MEDIAN(M2:M21)</f>
         <v>1</v>
       </c>
-      <c r="N22" s="32">
+      <c r="N22" s="24">
         <f t="shared" si="12"/>
         <v>0.39214311390608092</v>
       </c>
-      <c r="O22" s="32">
+      <c r="O22" s="24">
         <f t="shared" si="12"/>
         <v>0.10648428491599708</v>
       </c>
-      <c r="P22" s="32">
+      <c r="P22" s="24">
         <f t="shared" si="12"/>
         <v>0.49903601760554517</v>
       </c>
-      <c r="Q22" s="32">
+      <c r="Q22" s="24">
         <f t="shared" si="12"/>
         <v>0</v>
       </c>
-      <c r="T22" s="15"/>
-      <c r="U22" s="9" t="s">
+      <c r="T22" s="45"/>
+      <c r="U22" s="32" t="s">
         <v>37</v>
       </c>
-      <c r="V22" s="24">
+      <c r="V22" s="16">
         <f>MEDIAN(V2:V21)</f>
         <v>4</v>
       </c>
-      <c r="W22" s="24">
+      <c r="W22" s="16">
         <f t="shared" ref="W22:AA22" si="13">MEDIAN(W2:W21)</f>
         <v>6</v>
       </c>
-      <c r="X22" s="24">
+      <c r="X22" s="16">
         <f t="shared" si="13"/>
         <v>3</v>
       </c>
-      <c r="Y22" s="24">
+      <c r="Y22" s="16">
         <f t="shared" si="13"/>
         <v>2</v>
       </c>
-      <c r="Z22" s="24">
+      <c r="Z22" s="16">
         <f t="shared" si="13"/>
         <v>4</v>
       </c>
-      <c r="AA22" s="24">
+      <c r="AA22" s="16">
         <f t="shared" si="13"/>
         <v>1</v>
       </c>
@@ -3568,88 +3574,88 @@
       <c r="D23" s="4" t="s">
         <v>29</v>
       </c>
-      <c r="J23" s="38"/>
-      <c r="K23" s="33" t="s">
+      <c r="J23" s="46"/>
+      <c r="K23" s="25" t="s">
         <v>31</v>
       </c>
-      <c r="L23" s="34">
+      <c r="L23" s="26">
         <f t="shared" ref="L23:Q23" si="14">_xlfn.STDEV.P(L2:L21)</f>
         <v>0.35070767699001087</v>
       </c>
-      <c r="M23" s="34">
+      <c r="M23" s="26">
         <f t="shared" si="14"/>
         <v>0.33370938356979635</v>
       </c>
-      <c r="N23" s="34">
+      <c r="N23" s="26">
         <f t="shared" si="14"/>
         <v>0.30936265462860835</v>
       </c>
-      <c r="O23" s="34">
+      <c r="O23" s="26">
         <f t="shared" si="14"/>
         <v>0.16079124374623216</v>
       </c>
-      <c r="P23" s="34">
+      <c r="P23" s="26">
         <f t="shared" si="14"/>
         <v>0.34007763627666265</v>
       </c>
-      <c r="Q23" s="34">
+      <c r="Q23" s="26">
         <f t="shared" si="14"/>
         <v>0.31756178385545059</v>
       </c>
-      <c r="T23" s="16"/>
-      <c r="U23" s="14" t="s">
+      <c r="T23" s="11"/>
+      <c r="U23" s="11" t="s">
         <v>31</v>
       </c>
-      <c r="V23" s="27">
+      <c r="V23" s="19">
         <f t="shared" ref="V23:AA23" si="15">_xlfn.STDEV.P(V2:V21)</f>
         <v>1.3955285736952863</v>
       </c>
-      <c r="W23" s="27">
+      <c r="W23" s="19">
         <f t="shared" si="15"/>
         <v>1.0136567466356647</v>
       </c>
-      <c r="X23" s="27">
+      <c r="X23" s="19">
         <f t="shared" si="15"/>
         <v>1.5524174696260025</v>
       </c>
-      <c r="Y23" s="27">
+      <c r="Y23" s="19">
         <f t="shared" si="15"/>
         <v>1.2449899597988732</v>
       </c>
-      <c r="Z23" s="27">
+      <c r="Z23" s="19">
         <f t="shared" si="15"/>
         <v>0.82915619758884995</v>
       </c>
-      <c r="AA23" s="27">
+      <c r="AA23" s="19">
         <f t="shared" si="15"/>
         <v>1.82414363469547</v>
       </c>
     </row>
     <row r="24" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A24" s="5" t="s">
+      <c r="A24" s="33" t="s">
         <v>14</v>
       </c>
-      <c r="B24" s="11" t="s">
+      <c r="B24" s="8" t="s">
         <v>26</v>
       </c>
-      <c r="C24" s="35" t="s">
+      <c r="C24" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D24" s="12">
+      <c r="D24" s="9">
         <v>58.64</v>
       </c>
     </row>
     <row r="25" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A25" s="5" t="s">
+      <c r="A25" s="33" t="s">
         <v>16</v>
       </c>
-      <c r="B25" s="11" t="s">
+      <c r="B25" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C25" s="5" t="s">
+      <c r="C25" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D25" s="12">
+      <c r="D25" s="9">
         <v>54.39</v>
       </c>
       <c r="J25" s="4" t="s">
@@ -3666,120 +3672,120 @@
       </c>
     </row>
     <row r="26" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A26" s="5" t="s">
+      <c r="A26" s="33" t="s">
         <v>15</v>
       </c>
-      <c r="B26" s="11" t="s">
+      <c r="B26" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C26" s="5" t="s">
+      <c r="C26" s="33" t="s">
         <v>38</v>
       </c>
-      <c r="D26" s="12">
+      <c r="D26" s="9">
         <v>62.92</v>
       </c>
-      <c r="J26" s="20" t="s">
+      <c r="J26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="K26" s="21">
+      <c r="K26" s="13">
         <f>L22</f>
         <v>0.55175803628346853</v>
       </c>
-      <c r="L26">
+      <c r="L26" s="48">
         <v>0.55175803628346853</v>
       </c>
-      <c r="U26" s="20" t="s">
+      <c r="U26" s="12" t="s">
         <v>40</v>
       </c>
-      <c r="V26" s="24">
+      <c r="V26" s="16">
         <f>V22</f>
         <v>4</v>
       </c>
     </row>
     <row r="27" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A27" s="5" t="s">
+      <c r="A27" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B27" s="11" t="s">
+      <c r="B27" s="8" t="s">
         <v>25</v>
       </c>
-      <c r="C27" s="5" t="s">
+      <c r="C27" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="D27" s="12">
+      <c r="D27" s="9">
         <v>53.76</v>
       </c>
-      <c r="J27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="K27" s="21">
+      <c r="J27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="K27" s="13">
         <f>M22</f>
         <v>1</v>
       </c>
-      <c r="L27">
-        <v>1</v>
-      </c>
-      <c r="N27" s="48"/>
-      <c r="O27" s="48"/>
-      <c r="U27" s="21" t="s">
-        <v>1</v>
-      </c>
-      <c r="V27" s="22">
+      <c r="L27" s="48">
+        <v>1</v>
+      </c>
+      <c r="N27" s="47"/>
+      <c r="O27" s="47"/>
+      <c r="U27" s="13" t="s">
+        <v>1</v>
+      </c>
+      <c r="V27" s="14">
         <f>W22</f>
         <v>6</v>
       </c>
     </row>
     <row r="28" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="A28" s="7" t="s">
+      <c r="A28" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B28" s="13" t="s">
+      <c r="B28" s="10" t="s">
         <v>39</v>
       </c>
-      <c r="C28" s="36" t="s">
+      <c r="C28" s="34" t="s">
         <v>27</v>
       </c>
-      <c r="D28" s="14">
+      <c r="D28" s="11">
         <v>54.08</v>
       </c>
-      <c r="J28" s="22" t="s">
+      <c r="J28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="K28" s="21">
+      <c r="K28" s="13">
         <f>N22</f>
         <v>0.39214311390608092</v>
       </c>
-      <c r="L28">
+      <c r="L28" s="48">
         <v>0.39214311390608092</v>
       </c>
-      <c r="N28" s="48"/>
-      <c r="O28" s="48"/>
-      <c r="U28" s="22" t="s">
+      <c r="N28" s="47"/>
+      <c r="O28" s="47"/>
+      <c r="U28" s="14" t="s">
         <v>3</v>
       </c>
-      <c r="V28" s="22">
+      <c r="V28" s="14">
         <f>X22</f>
         <v>3</v>
       </c>
     </row>
     <row r="29" spans="1:27" x14ac:dyDescent="0.25">
-      <c r="J29" s="26" t="s">
+      <c r="J29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="K29" s="21">
+      <c r="K29" s="13">
         <f>O22</f>
         <v>0.10648428491599708</v>
       </c>
-      <c r="L29">
+      <c r="L29" s="48">
         <v>0.10648428491599708</v>
       </c>
-      <c r="M29" s="20"/>
-      <c r="N29" s="48"/>
-      <c r="O29" s="48"/>
-      <c r="U29" s="26" t="s">
+      <c r="M29" s="12"/>
+      <c r="N29" s="47"/>
+      <c r="O29" s="47"/>
+      <c r="U29" s="18" t="s">
         <v>4</v>
       </c>
-      <c r="V29" s="22">
+      <c r="V29" s="14">
         <f>Y22</f>
         <v>2</v>
       </c>
@@ -3806,23 +3812,23 @@
       <c r="G30" s="4" t="s">
         <v>6</v>
       </c>
-      <c r="H30" s="42"/>
-      <c r="J30" s="11" t="s">
+      <c r="H30" s="30"/>
+      <c r="J30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="K30" s="21">
+      <c r="K30" s="13">
         <f>P22</f>
         <v>0.49903601760554517</v>
       </c>
-      <c r="L30">
+      <c r="L30" s="48">
         <v>0.49903601760554517</v>
       </c>
-      <c r="N30" s="48"/>
-      <c r="O30" s="48"/>
-      <c r="U30" s="11" t="s">
+      <c r="N30" s="47"/>
+      <c r="O30" s="47"/>
+      <c r="U30" s="8" t="s">
         <v>5</v>
       </c>
-      <c r="V30" s="22">
+      <c r="V30" s="14">
         <f>Z22</f>
         <v>4</v>
       </c>
@@ -3831,39 +3837,39 @@
       <c r="A31" s="2" t="s">
         <v>14</v>
       </c>
-      <c r="B31" s="20">
+      <c r="B31" s="12">
         <v>0.16000000000002501</v>
       </c>
-      <c r="C31" s="20">
+      <c r="C31" s="12">
         <v>0.139999999999986</v>
       </c>
-      <c r="D31" s="20">
+      <c r="D31" s="12">
         <v>5.0200000000000404</v>
       </c>
-      <c r="E31" s="24">
+      <c r="E31" s="16">
         <v>0</v>
       </c>
-      <c r="F31" s="20">
+      <c r="F31" s="12">
         <v>0.16000000000002501</v>
       </c>
-      <c r="G31" s="20">
+      <c r="G31" s="12">
         <v>5.7799999999999701</v>
       </c>
-      <c r="H31" s="22"/>
-      <c r="J31" s="23" t="s">
+      <c r="H31" s="14"/>
+      <c r="J31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="K31" s="27">
+      <c r="K31" s="19">
         <f>Q22</f>
         <v>0</v>
       </c>
-      <c r="L31">
+      <c r="L31" s="48">
         <v>0</v>
       </c>
-      <c r="U31" s="23" t="s">
+      <c r="U31" s="15" t="s">
         <v>6</v>
       </c>
-      <c r="V31" s="23">
+      <c r="V31" s="15">
         <f>AA22</f>
         <v>1</v>
       </c>
@@ -3872,203 +3878,203 @@
       <c r="A32" s="2" t="s">
         <v>16</v>
       </c>
-      <c r="B32" s="21">
+      <c r="B32" s="13">
         <v>0.24000000000000901</v>
       </c>
-      <c r="C32" s="21">
+      <c r="C32" s="13">
         <v>0.139999999999986</v>
       </c>
-      <c r="D32" s="21">
+      <c r="D32" s="13">
         <v>3.4300000000000601</v>
       </c>
-      <c r="E32" s="22">
+      <c r="E32" s="14">
         <v>0</v>
       </c>
-      <c r="F32" s="21">
+      <c r="F32" s="13">
         <v>5.9999999999945403E-2</v>
       </c>
-      <c r="G32" s="21">
+      <c r="G32" s="13">
         <v>3.95999999999992</v>
       </c>
-      <c r="H32" s="43"/>
-      <c r="U32" s="22"/>
-      <c r="V32" s="22"/>
+      <c r="H32" s="31"/>
+      <c r="U32" s="14"/>
+      <c r="V32" s="14"/>
     </row>
     <row r="33" spans="1:22" x14ac:dyDescent="0.25">
       <c r="A33" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="B33" s="20">
+      <c r="B33" s="12">
         <v>9.0000000000031805E-2</v>
       </c>
-      <c r="C33" s="20">
+      <c r="C33" s="12">
         <v>0.17000000000007301</v>
       </c>
-      <c r="D33" s="20">
+      <c r="D33" s="12">
         <v>3.91999999999996</v>
       </c>
-      <c r="E33" s="22">
+      <c r="E33" s="14">
         <v>0</v>
       </c>
-      <c r="F33" s="20">
+      <c r="F33" s="12">
         <v>0.110000000000014</v>
       </c>
-      <c r="G33" s="20">
+      <c r="G33" s="12">
         <v>5.1100000000000101</v>
       </c>
-      <c r="H33" s="22"/>
+      <c r="H33" s="14"/>
       <c r="J33" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="K33" s="53" t="s">
+      <c r="K33" s="36" t="s">
         <v>40</v>
       </c>
-      <c r="L33" s="52" t="s">
-        <v>1</v>
-      </c>
-      <c r="M33" s="53" t="s">
+      <c r="L33" s="35" t="s">
+        <v>1</v>
+      </c>
+      <c r="M33" s="36" t="s">
         <v>3</v>
       </c>
-      <c r="N33" s="54" t="s">
+      <c r="N33" s="37" t="s">
         <v>4</v>
       </c>
-      <c r="O33" s="55" t="s">
+      <c r="O33" s="38" t="s">
         <v>5</v>
       </c>
-      <c r="P33" s="53" t="s">
+      <c r="P33" s="36" t="s">
         <v>6</v>
       </c>
-      <c r="U33" s="44"/>
-      <c r="V33" s="44"/>
+      <c r="U33" s="9"/>
+      <c r="V33" s="9"/>
     </row>
     <row r="34" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A34" s="5" t="s">
+      <c r="A34" s="33" t="s">
         <v>18</v>
       </c>
-      <c r="B34" s="22">
+      <c r="B34" s="14">
         <v>0.42999999999994998</v>
       </c>
-      <c r="C34" s="22">
+      <c r="C34" s="14">
         <v>0.16999999999995899</v>
       </c>
-      <c r="D34" s="22">
+      <c r="D34" s="14">
         <v>3.94999999999993</v>
       </c>
-      <c r="E34" s="22">
+      <c r="E34" s="14">
         <v>0</v>
       </c>
-      <c r="F34" s="22">
+      <c r="F34" s="14">
         <v>0.100000000000023</v>
       </c>
-      <c r="G34" s="22">
+      <c r="G34" s="14">
         <v>6.5</v>
       </c>
-      <c r="H34" s="22"/>
+      <c r="H34" s="14"/>
       <c r="J34" s="4" t="s">
         <v>35</v>
       </c>
-      <c r="K34" s="56">
+      <c r="K34" s="39">
         <v>0.55175803628346853</v>
       </c>
-      <c r="L34" s="56">
-        <v>1</v>
-      </c>
-      <c r="M34" s="56">
+      <c r="L34" s="39">
+        <v>1</v>
+      </c>
+      <c r="M34" s="39">
         <v>0.39214311390608092</v>
       </c>
-      <c r="N34" s="56">
+      <c r="N34" s="39">
         <v>0.10648428491599708</v>
       </c>
-      <c r="O34" s="56">
+      <c r="O34" s="39">
         <v>0.49903601760554517</v>
       </c>
-      <c r="P34" s="56">
+      <c r="P34" s="39">
         <v>0</v>
       </c>
     </row>
     <row r="35" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A35" s="7" t="s">
+      <c r="A35" s="34" t="s">
         <v>19</v>
       </c>
-      <c r="B35" s="23">
+      <c r="B35" s="15">
         <v>0.12000000000000501</v>
       </c>
-      <c r="C35" s="23">
+      <c r="C35" s="15">
         <v>0.110000000000014</v>
       </c>
-      <c r="D35" s="23">
+      <c r="D35" s="15">
         <v>5</v>
       </c>
-      <c r="E35" s="23">
+      <c r="E35" s="15">
         <v>0</v>
       </c>
-      <c r="F35" s="23">
+      <c r="F35" s="15">
         <v>0.12999999999999501</v>
       </c>
-      <c r="G35" s="23">
+      <c r="G35" s="15">
         <v>4.12</v>
       </c>
-      <c r="H35" s="22"/>
+      <c r="H35" s="14"/>
     </row>
     <row r="36" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A36" s="25" t="s">
+      <c r="A36" s="17" t="s">
         <v>30</v>
       </c>
-      <c r="B36" s="24">
+      <c r="B36" s="16">
         <f>AVERAGE(B31:B35)</f>
         <v>0.20800000000000418</v>
       </c>
-      <c r="C36" s="24">
+      <c r="C36" s="16">
         <f t="shared" ref="C36" si="16">AVERAGE(C31:C35)</f>
         <v>0.1460000000000036</v>
       </c>
-      <c r="D36" s="24">
+      <c r="D36" s="16">
         <f t="shared" ref="D36:G36" si="17">AVERAGE(D31:D35)</f>
         <v>4.2639999999999985</v>
       </c>
-      <c r="E36" s="24">
+      <c r="E36" s="16">
         <f t="shared" si="17"/>
         <v>0</v>
       </c>
-      <c r="F36" s="24">
+      <c r="F36" s="16">
         <f t="shared" si="17"/>
         <v>0.1120000000000005</v>
       </c>
-      <c r="G36" s="24">
+      <c r="G36" s="16">
         <f t="shared" si="17"/>
         <v>5.0939999999999808</v>
       </c>
-      <c r="H36" s="22"/>
+      <c r="H36" s="14"/>
     </row>
     <row r="37" spans="1:22" x14ac:dyDescent="0.25">
-      <c r="A37" s="7" t="s">
+      <c r="A37" s="34" t="s">
         <v>33</v>
       </c>
-      <c r="B37" s="23">
+      <c r="B37" s="15">
         <f>_xlfn.STDEV.P(B31:B35)</f>
         <v>0.12188519188151409</v>
       </c>
-      <c r="C37" s="23">
+      <c r="C37" s="15">
         <f t="shared" ref="C37" si="18">_xlfn.STDEV.P(C31:C35)</f>
         <v>2.2449944320647456E-2</v>
       </c>
-      <c r="D37" s="23">
+      <c r="D37" s="15">
         <f t="shared" ref="D37:G37" si="19">_xlfn.STDEV.P(D31:D35)</f>
         <v>0.63650923009804405</v>
       </c>
-      <c r="E37" s="23">
+      <c r="E37" s="15">
         <f t="shared" si="19"/>
         <v>0</v>
       </c>
-      <c r="F37" s="23">
+      <c r="F37" s="15">
         <f t="shared" si="19"/>
         <v>3.3105890714515654E-2</v>
       </c>
-      <c r="G37" s="23">
+      <c r="G37" s="15">
         <f t="shared" si="19"/>
         <v>0.96771070057121078</v>
       </c>
-      <c r="H37" s="22"/>
+      <c r="H37" s="14"/>
       <c r="I37" s="2"/>
     </row>
     <row r="38" spans="1:22" x14ac:dyDescent="0.25">
@@ -4227,16 +4233,16 @@
     </row>
   </sheetData>
   <mergeCells count="10">
+    <mergeCell ref="J2:J5"/>
+    <mergeCell ref="J6:J9"/>
+    <mergeCell ref="J10:J13"/>
+    <mergeCell ref="J14:J17"/>
+    <mergeCell ref="J18:J21"/>
     <mergeCell ref="T2:T5"/>
     <mergeCell ref="T6:T9"/>
     <mergeCell ref="T10:T13"/>
     <mergeCell ref="T14:T17"/>
     <mergeCell ref="T18:T21"/>
-    <mergeCell ref="J2:J5"/>
-    <mergeCell ref="J6:J9"/>
-    <mergeCell ref="J10:J13"/>
-    <mergeCell ref="J14:J17"/>
-    <mergeCell ref="J18:J21"/>
   </mergeCells>
   <conditionalFormatting sqref="L2:Q21">
     <cfRule type="cellIs" dxfId="1" priority="5" operator="between">
